--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -655,10 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,13 +984,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="16.5384615384615"/>
-    <col min="5" max="5" width="16.5384615384615"/>
+    <col min="5" max="5" width="19.3076923076923"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
